--- a/medicine/Sexualité et sexologie/Répression_sexuelle/Répression_sexuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Répression_sexuelle/Répression_sexuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9pression_sexuelle</t>
+          <t>Répression_sexuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La répression sexuelle est un ensemble de dispositifs qui contribuent à l'affaiblissement ou à l'absence de vie sexuelle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répression sexuelle est un ensemble de dispositifs qui contribuent à l'affaiblissement ou à l'absence de vie sexuelle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9pression_sexuelle</t>
+          <t>Répression_sexuelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répression sexuelle dans la religion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La répression sexuelle est une prohibition récurrente dans le contexte religieux, que ce soit l'interdiction de la sexualité hors mariage, l'interdiction de la sexualité non reproductive ou l'interdiction de l'homosexualité.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9pression_sexuelle</t>
+          <t>Répression_sexuelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9pression_sexuelle</t>
+          <t>Répression_sexuelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Répression de l'homosexualité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2014, 70 pays interdisent l'homosexualité sous peine de prison et cinq autres pays sous peine de mort.
 </t>
